--- a/bases/10_2024.xlsx
+++ b/bases/10_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://overdax-my.sharepoint.com/personal/alison_pezzott_fluentebi_com/Documents/projetos/live_hugo_venturini_2024_12_05/bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="350" documentId="8_{761F1112-96AB-426A-8888-8E568EFA7DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32C92681-6394-4F6A-B572-F2C7DF4F0578}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="8_{761F1112-96AB-426A-8888-8E568EFA7DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50198D35-5AE2-4BE1-A9BB-FD344F595505}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99A06630-E102-4ABF-9518-9C9EF2E8DDF9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
   <si>
     <t>Empresa:</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Horas Normais Diurnas</t>
   </si>
   <si>
-    <t>190:40 hs</t>
-  </si>
-  <si>
     <t>FGTS</t>
   </si>
   <si>
@@ -99,27 +96,18 @@
     <t>PIS</t>
   </si>
   <si>
-    <t>220:00 hs</t>
-  </si>
-  <si>
     <t>Horas Faltas Integrais</t>
   </si>
   <si>
     <t>Horas Faltas PARCIAL</t>
   </si>
   <si>
-    <t>008:48 hs</t>
-  </si>
-  <si>
     <t>Diferença de Salário</t>
   </si>
   <si>
     <t>Horas Faltas DSR Diurnas</t>
   </si>
   <si>
-    <t>014:40 hs</t>
-  </si>
-  <si>
     <t>Comissões</t>
   </si>
   <si>
@@ -129,9 +117,6 @@
     <t>DSR S/Comissões</t>
   </si>
   <si>
-    <t>022:00 hs</t>
-  </si>
-  <si>
     <t>Desconto Adiantamento Salarial</t>
   </si>
   <si>
@@ -147,16 +132,7 @@
     <t>Desconto Cooparticipação Plan</t>
   </si>
   <si>
-    <t>008:59 hs</t>
-  </si>
-  <si>
-    <t>003:35 hs</t>
-  </si>
-  <si>
     <t>Vale Transporte (%)</t>
-  </si>
-  <si>
-    <t>002:08 hs</t>
   </si>
   <si>
     <t>Horas Lic.Mater.Diurnas(GPS)</t>
@@ -608,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B459F1B-99A3-4C0A-91B3-CE2186DE9241}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -634,16 +610,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -657,13 +633,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -671,23 +647,23 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -698,7 +674,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -719,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4"/>
@@ -746,14 +722,14 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
+      <c r="D10" s="2">
+        <v>190.66</v>
       </c>
       <c r="E10" s="5">
         <v>2450.9299999999998</v>
@@ -761,7 +737,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="6">
         <v>0.08</v>
@@ -774,7 +750,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="6">
         <v>0.09</v>
@@ -787,7 +763,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" s="2">
         <v>371.25</v>
@@ -808,7 +784,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -817,14 +793,14 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5">
         <v>1880.48</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="5">
         <v>2450.9299999999998</v>
@@ -833,14 +809,14 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>2450.9299999999998</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -849,14 +825,14 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5">
         <v>2450.9299999999998</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -871,7 +847,7 @@
         <v>1012</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -892,7 +868,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
@@ -919,14 +895,14 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>24</v>
+      <c r="D22" s="2">
+        <v>220</v>
       </c>
       <c r="E22" s="5">
         <v>1925.86</v>
@@ -934,7 +910,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J22" s="2">
         <v>778.05</v>
@@ -944,7 +920,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E23" s="2">
         <v>71.319999999999993</v>
@@ -952,7 +928,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I23" s="6">
         <v>0.08</v>
@@ -965,7 +941,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="6">
         <v>0.09</v>
@@ -978,7 +954,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" s="2">
         <v>416.22</v>
@@ -999,7 +975,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1008,14 +984,14 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2">
         <v>656.39</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="5">
         <v>1997.19</v>
@@ -1024,14 +1000,14 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="5">
         <v>1997.19</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -1040,14 +1016,14 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="5">
         <v>1997.19</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -1056,7 +1032,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1067,7 +1043,7 @@
         <v>350</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>7</v>
@@ -1088,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
@@ -1115,14 +1091,14 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>24</v>
+      <c r="D36" s="2">
+        <v>220</v>
       </c>
       <c r="E36" s="5">
         <v>1925.86</v>
@@ -1130,10 +1106,10 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="I36" s="2">
+        <v>8.8000000000000007</v>
       </c>
       <c r="J36" s="2">
         <v>77.03</v>
@@ -1143,7 +1119,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E37" s="2">
         <v>61.13</v>
@@ -1151,10 +1127,10 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="I37" s="2">
+        <v>14.66</v>
       </c>
       <c r="J37" s="2">
         <v>128.38999999999999</v>
@@ -1164,10 +1140,10 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="D38" s="2">
+        <v>190.4</v>
       </c>
       <c r="E38" s="2">
         <v>993.85</v>
@@ -1175,7 +1151,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J38" s="2">
         <v>8.06</v>
@@ -1185,10 +1161,10 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="D39" s="2">
+        <v>22</v>
       </c>
       <c r="E39" s="2">
         <v>114.67</v>
@@ -1196,7 +1172,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39" s="6">
         <v>0.08</v>
@@ -1209,7 +1185,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="6">
         <v>0.12</v>
@@ -1222,7 +1198,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J41" s="2">
         <v>325.83</v>
@@ -1243,7 +1219,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1252,14 +1228,14 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="5">
         <v>2319.65</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" s="5">
         <v>2890.1</v>
@@ -1268,14 +1244,14 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="5">
         <v>2890.1</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -1284,14 +1260,14 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="5">
         <v>2890.1</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -1300,7 +1276,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -1311,7 +1287,7 @@
         <v>729</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>7</v>
@@ -1332,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="4"/>
@@ -1359,14 +1335,14 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>24</v>
+      <c r="D52" s="2">
+        <v>220</v>
       </c>
       <c r="E52" s="5">
         <v>1925.86</v>
@@ -1374,7 +1350,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J52" s="2">
         <v>201.95</v>
@@ -1384,7 +1360,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E53" s="2">
         <v>61.13</v>
@@ -1392,10 +1368,10 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="I53" s="2">
+        <v>2.13</v>
       </c>
       <c r="J53" s="2">
         <v>18.670000000000002</v>
@@ -1405,10 +1381,10 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="D54" s="2">
+        <v>9</v>
       </c>
       <c r="E54" s="2">
         <v>157.27000000000001</v>
@@ -1416,7 +1392,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I54" s="6">
         <v>0.06</v>
@@ -1429,10 +1405,10 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3.58</v>
       </c>
       <c r="E55" s="2">
         <v>31.45</v>
@@ -1440,7 +1416,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I55" s="2">
         <v>30</v>
@@ -1453,7 +1429,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J56" s="2">
         <v>770.34</v>
@@ -1463,7 +1439,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I57" s="6">
         <v>0.08</v>
@@ -1476,7 +1452,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58" s="6">
         <v>0.09</v>
@@ -1489,7 +1465,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J59" s="2">
         <v>397.7</v>
@@ -1507,7 +1483,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1516,14 +1492,14 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63" s="2">
         <v>816.26</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63" s="5">
         <v>2157.0500000000002</v>
@@ -1532,14 +1508,14 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" s="5">
         <v>2157.0500000000002</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -1548,14 +1524,14 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65" s="5">
         <v>2157.0500000000002</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -1570,7 +1546,7 @@
         <v>921</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>7</v>
@@ -1591,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="4"/>
@@ -1609,7 +1585,7 @@
         <v>11</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -1618,11 +1594,11 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E69" s="2">
         <v>61.13</v>
@@ -1630,7 +1606,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J69" s="2">
         <v>156.9</v>
@@ -1640,10 +1616,10 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="D70" s="2">
+        <v>220</v>
       </c>
       <c r="E70" s="5">
         <v>1925.86</v>
@@ -1651,7 +1627,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I70" s="2">
         <v>30</v>
@@ -1664,7 +1640,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J71" s="2">
         <v>770.34</v>
@@ -1674,7 +1650,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I72" s="2">
         <v>30</v>
@@ -1687,7 +1663,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I73" s="6">
         <v>0.08</v>
@@ -1700,7 +1676,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I74" s="6">
         <v>0.09</v>
@@ -1713,7 +1689,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J75" s="2">
         <v>221.53</v>
@@ -1734,7 +1710,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1743,14 +1719,14 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B79" s="2">
         <v>646.20000000000005</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E79" s="5">
         <v>1987</v>
@@ -1759,14 +1735,14 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80" s="5">
         <v>1987</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -1775,14 +1751,14 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81" s="2">
         <v>61.13</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
